--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16.0895580638446</v>
+        <v>16.0875898103085</v>
       </c>
       <c r="C2" t="n">
-        <v>6941.8154</v>
+        <v>6940.9662</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -423,10 +423,10 @@
         <v>4537.1035</v>
       </c>
       <c r="D3" t="n">
-        <v>1588.2311</v>
+        <v>1588.4121</v>
       </c>
       <c r="E3" t="n">
-        <v>2948.8724</v>
+        <v>2948.6914</v>
       </c>
     </row>
     <row r="4">
@@ -440,10 +440,10 @@
         <v>3878.6199</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5146</v>
+        <v>642.6611</v>
       </c>
       <c r="E4" t="n">
-        <v>3236.1053</v>
+        <v>3235.9588</v>
       </c>
     </row>
     <row r="5">
@@ -457,10 +457,10 @@
         <v>1091.7837</v>
       </c>
       <c r="D5" t="n">
-        <v>97.66</v>
+        <v>97.7216</v>
       </c>
       <c r="E5" t="n">
-        <v>994.1237</v>
+        <v>994.0621</v>
       </c>
     </row>
     <row r="6">
@@ -474,10 +474,10 @@
         <v>697.724</v>
       </c>
       <c r="D6" t="n">
-        <v>155.486</v>
+        <v>155.4273</v>
       </c>
       <c r="E6" t="n">
-        <v>542.238</v>
+        <v>542.2967</v>
       </c>
     </row>
     <row r="7">
@@ -502,16 +502,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.596364828790729</v>
+        <v>0.591854904473147</v>
       </c>
       <c r="C8" t="n">
-        <v>257.3007</v>
+        <v>255.3549</v>
       </c>
       <c r="D8" t="n">
-        <v>57.2221</v>
+        <v>56.7245</v>
       </c>
       <c r="E8" t="n">
-        <v>200.0786</v>
+        <v>198.6304</v>
       </c>
     </row>
     <row r="9">
@@ -525,10 +525,10 @@
         <v>56.735</v>
       </c>
       <c r="D9" t="n">
-        <v>9.1642</v>
+        <v>9.1648</v>
       </c>
       <c r="E9" t="n">
-        <v>47.5708</v>
+        <v>47.5702</v>
       </c>
     </row>
   </sheetData>
